--- a/data/trans_bre/P08_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P08_1_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.79543809090242</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21.20290891781873</v>
+        <v>21.20290891781874</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.760853699519516</v>
@@ -649,7 +649,7 @@
         <v>0.4511420239840374</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6686576780910273</v>
+        <v>0.6686576780910276</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>14.14061900355982</v>
+        <v>14.06726920854398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.56693231965275</v>
+        <v>12.2504761306655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.44209251885711</v>
+        <v>10.38123595459096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.58334901758939</v>
+        <v>16.40599394630314</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5524694497586455</v>
+        <v>0.5511518571949411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3582315018781399</v>
+        <v>0.3554513103281808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2979043931380702</v>
+        <v>0.2942705126187647</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4774763100140271</v>
+        <v>0.4755695380972942</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>22.06623009720172</v>
+        <v>21.55351369384397</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.79474210864481</v>
+        <v>20.61526150477361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.35746824125974</v>
+        <v>19.67546182282718</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26.03549414532341</v>
+        <v>25.84583174638285</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.020641222698725</v>
+        <v>0.9897809313760006</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.705969414566529</v>
+        <v>0.6984637171343865</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6479063804711679</v>
+        <v>0.6531266152843466</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9207652193014312</v>
+        <v>0.8992030663065373</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.200848378146255</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.556298613221694</v>
+        <v>2.556298613221691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5060177888571042</v>
@@ -749,7 +749,7 @@
         <v>0.5833602727975249</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2034459251605939</v>
+        <v>0.2034459251605937</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9374750379466745</v>
+        <v>1.251420226475294</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.945517789847367</v>
+        <v>2.046922093002031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.149522981012518</v>
+        <v>3.021858511455967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.71691068136712</v>
+        <v>0.5702467180802084</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1400366398980223</v>
+        <v>0.1968652412689176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2094459970100534</v>
+        <v>0.2300805093507304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3130264112761307</v>
+        <v>0.3049788707118657</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05079092997630504</v>
+        <v>0.04188615740262028</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.571162932254149</v>
+        <v>4.681741312543529</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.06909247772161</v>
+        <v>6.306449896501316</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.363049507251934</v>
+        <v>7.359466677531261</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.666393298407759</v>
+        <v>4.361437305423507</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9283539111643078</v>
+        <v>0.9793098078561889</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8531525886598653</v>
+        <v>0.8928903071563637</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.931441750916705</v>
+        <v>0.9205439225474518</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4010602810485137</v>
+        <v>0.382900921431889</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.440769670852134</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.556719435345797</v>
+        <v>2.5567194353458</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8413777579643178</v>
@@ -849,7 +849,7 @@
         <v>0.2077973780984751</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3963613546032018</v>
+        <v>0.3963613546032023</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8775578966647484</v>
+        <v>0.9723247924470084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.639776379253586</v>
+        <v>-2.517942708193683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.212037922699567</v>
+        <v>-2.091002587933961</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1548196202336526</v>
+        <v>0.1415364990515205</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1400925899965677</v>
+        <v>0.08464151476417103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2783715321487618</v>
+        <v>-0.272928830717829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2627862058147085</v>
+        <v>-0.2373391002805764</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.007367920839355418</v>
+        <v>0.02025319830078873</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.512584251202411</v>
+        <v>7.481983123763754</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.017271811623818</v>
+        <v>4.891237021429948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.978913177821167</v>
+        <v>4.888215143686355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.098004276455207</v>
+        <v>5.00878599783749</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.978287230666911</v>
+        <v>2.027730666014248</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8682488531796636</v>
+        <v>0.9884512905728695</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9332500772745937</v>
+        <v>0.9356443425024298</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9778195513432077</v>
+        <v>1.013677572862221</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.722399444651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.773526950964193</v>
+        <v>7.77352695096419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9193272726389637</v>
@@ -949,7 +949,7 @@
         <v>0.6262593562984039</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5370287344980106</v>
+        <v>0.5370287344980104</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.454977718202354</v>
+        <v>8.699633004329074</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.697164056409818</v>
+        <v>8.829743309883265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.778483288649487</v>
+        <v>6.801708784565505</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.067229300950345</v>
+        <v>6.095478361531641</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7140511160332894</v>
+        <v>0.7291456214269344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5510084996857088</v>
+        <v>0.576071205137897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.461305730471663</v>
+        <v>0.4569552876086249</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3977168916502657</v>
+        <v>0.396900516876425</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.99556631499822</v>
+        <v>12.00540310211555</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.6255037987398</v>
+        <v>12.62063227767226</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.51555271182863</v>
+        <v>10.49635566308991</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.412740079017189</v>
+        <v>9.354720434054837</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.162737017183593</v>
+        <v>1.159775488653381</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9251454743248002</v>
+        <v>0.9232594295263234</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8100360974240676</v>
+        <v>0.794061241296123</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.701360400619885</v>
+        <v>0.6902203992396608</v>
       </c>
     </row>
     <row r="16">
